--- a/input/CTS_user_set.xlsx
+++ b/input/CTS_user_set.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epish\PycharmProjects\endemo-endemo-v2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7812B-ED86-4AC3-BCD1-6E641E57626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13C0CF-C309-4749-9AAB-F7735C9F4B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AU$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AU$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="56">
   <si>
     <t>Region</t>
   </si>
@@ -152,9 +152,6 @@
     <t>SPEC_EN_EMPLOYEE</t>
   </si>
   <si>
-    <t>take from hist!!</t>
-  </si>
-  <si>
     <t>const_mean</t>
   </si>
   <si>
@@ -198,6 +195,15 @@
   </si>
   <si>
     <t>Source / Assumption</t>
+  </si>
+  <si>
+    <t>GWh/tsd. employees</t>
+  </si>
+  <si>
+    <t>GWh/tsd. Employees</t>
+  </si>
+  <si>
+    <t>Lower limit</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +606,7 @@
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,10 +684,13 @@
         <v>2100</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -715,8 +724,11 @@
       <c r="N2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -750,8 +762,11 @@
       <c r="N3" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -785,8 +800,11 @@
       <c r="N4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -820,8 +838,11 @@
       <c r="N5" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -855,8 +876,11 @@
       <c r="N6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -890,8 +914,11 @@
       <c r="N7" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -925,8 +952,11 @@
       <c r="N8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -960,8 +990,11 @@
       <c r="N9" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -978,28 +1011,33 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1016,28 +1054,32 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I12" si="0">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1054,28 +1096,32 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1092,31 +1138,34 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>0.01</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
         <v>51</v>
       </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
       <c r="L13" t="s">
         <v>34</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1133,31 +1182,34 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14">
         <v>0.01</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
       <c r="L14" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1174,31 +1226,34 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>0.01</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
       <c r="L15" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1215,31 +1270,34 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16">
         <v>0.01</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
         <v>51</v>
       </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
       <c r="L16" t="s">
         <v>34</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1256,31 +1314,34 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17">
         <v>0.01</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
         <v>51</v>
       </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
       <c r="L17" t="s">
         <v>34</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1305,8 +1366,11 @@
       <c r="M18" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1323,28 +1387,32 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1361,28 +1429,32 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" ref="I20:I21" si="1">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1399,28 +1471,32 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1437,31 +1513,34 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22">
         <v>0.01</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
         <v>51</v>
       </c>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
       <c r="L22" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1478,31 +1557,34 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23">
         <v>0.01</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
         <v>51</v>
       </c>
-      <c r="K23" t="s">
-        <v>52</v>
-      </c>
       <c r="L23" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1519,31 +1601,34 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24">
         <v>0.01</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
         <v>51</v>
       </c>
-      <c r="K24" t="s">
-        <v>52</v>
-      </c>
       <c r="L24" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1560,31 +1645,34 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25">
         <v>0.01</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
-        <v>52</v>
-      </c>
       <c r="L25" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1601,31 +1689,34 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26">
         <v>0.01</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
         <v>51</v>
       </c>
-      <c r="K26" t="s">
-        <v>52</v>
-      </c>
       <c r="L26" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1650,8 +1741,11 @@
       <c r="M27" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1668,28 +1762,32 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1706,28 +1804,32 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:I30" si="2">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1744,28 +1846,32 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1782,31 +1888,34 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31">
         <v>0.01</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
         <v>51</v>
       </c>
-      <c r="K31" t="s">
-        <v>52</v>
-      </c>
       <c r="L31" t="s">
         <v>34</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1823,31 +1932,34 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32">
         <v>0.01</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
         <v>51</v>
       </c>
-      <c r="K32" t="s">
-        <v>52</v>
-      </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1864,31 +1976,34 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33">
         <v>0.01</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" t="s">
         <v>51</v>
       </c>
-      <c r="K33" t="s">
-        <v>52</v>
-      </c>
       <c r="L33" t="s">
         <v>34</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1905,31 +2020,34 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34">
         <v>0.01</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s">
         <v>51</v>
       </c>
-      <c r="K34" t="s">
-        <v>52</v>
-      </c>
       <c r="L34" t="s">
         <v>34</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1946,31 +2064,34 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35">
         <v>0.01</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
         <v>51</v>
       </c>
-      <c r="K35" t="s">
-        <v>52</v>
-      </c>
       <c r="L35" t="s">
         <v>34</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +2108,7 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1995,8 +2116,11 @@
       <c r="M36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2013,28 +2137,32 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2051,28 +2179,32 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" ref="I38:I39" si="3">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2089,28 +2221,32 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2127,31 +2263,34 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
         <v>43</v>
       </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40">
         <v>0.01</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
         <v>51</v>
       </c>
-      <c r="K40" t="s">
-        <v>52</v>
-      </c>
       <c r="L40" t="s">
         <v>34</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2168,31 +2307,34 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41">
         <v>0.01</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
         <v>51</v>
       </c>
-      <c r="K41" t="s">
-        <v>52</v>
-      </c>
       <c r="L41" t="s">
         <v>34</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2209,31 +2351,34 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42">
         <v>0.01</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
         <v>51</v>
       </c>
-      <c r="K42" t="s">
-        <v>52</v>
-      </c>
       <c r="L42" t="s">
         <v>34</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2250,31 +2395,34 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43">
         <v>0.01</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" t="s">
         <v>51</v>
       </c>
-      <c r="K43" t="s">
-        <v>52</v>
-      </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2291,31 +2439,34 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44">
         <v>0.01</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" t="s">
         <v>51</v>
       </c>
-      <c r="K44" t="s">
-        <v>52</v>
-      </c>
       <c r="L44" t="s">
         <v>34</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2332,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2340,8 +2491,11 @@
       <c r="M45" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2358,28 +2512,32 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2396,28 +2554,32 @@
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" ref="I47:I48" si="4">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2434,28 +2596,32 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2472,31 +2638,34 @@
         <v>19</v>
       </c>
       <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s">
         <v>43</v>
       </c>
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49">
         <v>0.01</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
         <v>51</v>
       </c>
-      <c r="K49" t="s">
-        <v>52</v>
-      </c>
       <c r="L49" t="s">
         <v>34</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2513,31 +2682,34 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I50">
         <v>0.01</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
         <v>51</v>
       </c>
-      <c r="K50" t="s">
-        <v>52</v>
-      </c>
       <c r="L50" t="s">
         <v>34</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2554,31 +2726,34 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51">
         <v>0.01</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" t="s">
         <v>51</v>
       </c>
-      <c r="K51" t="s">
-        <v>52</v>
-      </c>
       <c r="L51" t="s">
         <v>34</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2595,31 +2770,34 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I52">
         <v>0.01</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s">
         <v>51</v>
       </c>
-      <c r="K52" t="s">
-        <v>52</v>
-      </c>
       <c r="L52" t="s">
         <v>34</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2636,31 +2814,34 @@
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I53">
         <v>0.01</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
         <v>51</v>
       </c>
-      <c r="K53" t="s">
-        <v>52</v>
-      </c>
       <c r="L53" t="s">
         <v>34</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2677,7 +2858,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2685,8 +2866,11 @@
       <c r="M54" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2703,28 +2887,32 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2741,28 +2929,32 @@
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" ref="I56:I57" si="5">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2779,28 +2971,32 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2817,31 +3013,34 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
         <v>43</v>
       </c>
-      <c r="G58" t="s">
-        <v>44</v>
-      </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I58">
         <v>0.01</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
         <v>51</v>
       </c>
-      <c r="K58" t="s">
-        <v>52</v>
-      </c>
       <c r="L58" t="s">
         <v>34</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2858,31 +3057,34 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I59">
         <v>0.01</v>
       </c>
       <c r="J59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" t="s">
         <v>51</v>
       </c>
-      <c r="K59" t="s">
-        <v>52</v>
-      </c>
       <c r="L59" t="s">
         <v>34</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2899,31 +3101,34 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I60">
         <v>0.01</v>
       </c>
       <c r="J60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
         <v>51</v>
       </c>
-      <c r="K60" t="s">
-        <v>52</v>
-      </c>
       <c r="L60" t="s">
         <v>34</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2940,31 +3145,34 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I61">
         <v>0.01</v>
       </c>
       <c r="J61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
         <v>51</v>
       </c>
-      <c r="K61" t="s">
-        <v>52</v>
-      </c>
       <c r="L61" t="s">
         <v>34</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2981,31 +3189,34 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I62">
         <v>0.01</v>
       </c>
       <c r="J62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" t="s">
         <v>51</v>
       </c>
-      <c r="K62" t="s">
-        <v>52</v>
-      </c>
       <c r="L62" t="s">
         <v>34</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3022,7 +3233,7 @@
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3030,8 +3241,11 @@
       <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3048,28 +3262,32 @@
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="4">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -3086,28 +3304,32 @@
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" ref="I65:I66" si="6">1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -3124,28 +3346,32 @@
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3162,31 +3388,34 @@
         <v>19</v>
       </c>
       <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
         <v>43</v>
       </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I67">
         <v>0.01</v>
       </c>
       <c r="J67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s">
         <v>51</v>
       </c>
-      <c r="K67" t="s">
-        <v>52</v>
-      </c>
       <c r="L67" t="s">
         <v>34</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3203,31 +3432,34 @@
         <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I68">
         <v>0.01</v>
       </c>
       <c r="J68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K68" t="s">
         <v>51</v>
       </c>
-      <c r="K68" t="s">
-        <v>52</v>
-      </c>
       <c r="L68" t="s">
         <v>34</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -3244,31 +3476,34 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I69">
         <v>0.01</v>
       </c>
       <c r="J69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" t="s">
         <v>51</v>
       </c>
-      <c r="K69" t="s">
-        <v>52</v>
-      </c>
       <c r="L69" t="s">
         <v>34</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -3285,31 +3520,34 @@
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I70">
         <v>0.01</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" t="s">
         <v>51</v>
       </c>
-      <c r="K70" t="s">
-        <v>52</v>
-      </c>
       <c r="L70" t="s">
         <v>34</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3326,31 +3564,34 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I71">
         <v>0.01</v>
       </c>
       <c r="J71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" t="s">
         <v>51</v>
       </c>
-      <c r="K71" t="s">
-        <v>52</v>
-      </c>
       <c r="L71" t="s">
         <v>34</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3367,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3375,9 +3616,11 @@
       <c r="M72" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>